--- a/AutomationPortfolio/resources/TestData.xlsx
+++ b/AutomationPortfolio/resources/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Suman\Java\eclipse-workspace\AutomationPortfolio\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Suman\newgit\portfolio\AutomationPortfolio\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Username</t>
   </si>
@@ -125,13 +125,16 @@
     <t>zipcode</t>
   </si>
   <si>
-    <t>773 victory4474 vict</t>
-  </si>
-  <si>
     <t>California</t>
   </si>
   <si>
     <t>WoodLand hills</t>
+  </si>
+  <si>
+    <t>22228 victory blvd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4420 Reflection </t>
   </si>
 </sst>
 </file>
@@ -803,11 +806,13 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -830,13 +835,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
       </c>
       <c r="E2">
         <v>91367</v>
